--- a/backend/common/primary_data/灣仔區升学数据.xlsx
+++ b/backend/common/primary_data/灣仔區升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15840" firstSheet="6" activeTab="6"/>
+    <workbookView windowHeight="15740" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="高主教書院小學部" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="139">
   <si>
     <t>是否可统计升中数据</t>
   </si>
@@ -289,9 +289,6 @@
     <t>漢華中學</t>
   </si>
   <si>
-    <t>培僑僑中學</t>
-  </si>
-  <si>
     <t>鄧鏡波學校</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
   </si>
   <si>
     <t>香港真光書院</t>
-  </si>
-  <si>
-    <t>聖保祿祿中學</t>
   </si>
   <si>
     <t>福建中學(小西灣)</t>
@@ -734,14 +728,14 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF175CEB"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF175CEB"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1546,7 +1540,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6506845" y="950595"/>
+          <a:off x="5641975" y="950595"/>
           <a:ext cx="2693670" cy="3972560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1827,7 +1821,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="31.15" customWidth="1"/>
+    <col min="3" max="3" width="31.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1877,7 +1871,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="31.15" customWidth="1"/>
+    <col min="3" max="3" width="31.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1911,7 +1905,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:5">
@@ -1923,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:5">
@@ -1935,19 +1929,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" ht="16" spans="1:5">
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" s="4">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" ht="16" spans="1:5">
@@ -1959,67 +1953,67 @@
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" ht="16" spans="1:5">
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" ht="16" spans="1:5">
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" ht="16" spans="1:5">
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" ht="16" spans="1:5">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" ht="16" spans="1:5">
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" ht="16" spans="1:5">
@@ -2031,31 +2025,31 @@
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" ht="16" spans="1:5">
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="4">
         <v>4</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" ht="16" spans="1:5">
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" ht="16" spans="1:5">
@@ -2067,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" ht="16" spans="1:5">
@@ -2079,7 +2073,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" ht="16" spans="2:5">
@@ -2091,19 +2085,19 @@
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" ht="16" spans="2:5">
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" ht="16" spans="2:5">
@@ -2115,31 +2109,31 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" ht="16" spans="2:5">
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" ht="16" spans="2:5">
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2165,7 +2159,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="31.15" customWidth="1"/>
+    <col min="3" max="3" width="31.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2190,7 +2184,7 @@
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -2214,7 +2208,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="31.15" customWidth="1"/>
+    <col min="3" max="3" width="31.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2239,7 +2233,7 @@
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:5">
@@ -2267,8 +2261,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="31.15" customWidth="1"/>
-    <col min="5" max="5" width="31.7833333333333" customWidth="1"/>
+    <col min="3" max="3" width="31.1538461538462" customWidth="1"/>
+    <col min="5" max="5" width="31.7788461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2293,7 +2287,7 @@
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -2317,8 +2311,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="31.15" customWidth="1"/>
-    <col min="5" max="5" width="31.7833333333333" customWidth="1"/>
+    <col min="3" max="3" width="31.1538461538462" customWidth="1"/>
+    <col min="5" max="5" width="31.7788461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2343,7 +2337,7 @@
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -2367,8 +2361,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="31.15" customWidth="1"/>
-    <col min="5" max="5" width="31.7833333333333" customWidth="1"/>
+    <col min="3" max="3" width="31.1538461538462" customWidth="1"/>
+    <col min="5" max="5" width="31.7788461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2414,7 +2408,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="31.15" customWidth="1"/>
+    <col min="3" max="3" width="31.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2470,7 +2464,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="31.15" customWidth="1"/>
+    <col min="3" max="3" width="31.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2530,7 +2524,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="31.15" customWidth="1"/>
+    <col min="3" max="3" width="31.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2590,7 +2584,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="31.15" customWidth="1"/>
+    <col min="3" max="3" width="31.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2645,7 +2639,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="31.15" customWidth="1"/>
+    <col min="3" max="3" width="31.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2694,13 +2688,13 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="31.15" customWidth="1"/>
+    <col min="3" max="3" width="31.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3084,7 +3078,7 @@
     <row r="40" ht="16" spans="2:4">
       <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D40" s="4">
         <v>2</v>
@@ -3102,7 +3096,7 @@
     <row r="42" ht="16" spans="2:4">
       <c r="B42" s="2"/>
       <c r="C42" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -3111,7 +3105,7 @@
     <row r="43" ht="16" spans="2:4">
       <c r="B43" s="2"/>
       <c r="C43" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -3120,7 +3114,7 @@
     <row r="44" ht="16" spans="2:4">
       <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -3129,7 +3123,7 @@
     <row r="45" ht="16" spans="2:4">
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -3138,7 +3132,7 @@
     <row r="46" ht="16" spans="2:4">
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -3147,7 +3141,7 @@
     <row r="47" ht="16" spans="2:4">
       <c r="B47" s="2"/>
       <c r="C47" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -3156,7 +3150,7 @@
     <row r="48" ht="16" spans="2:4">
       <c r="B48" s="2"/>
       <c r="C48" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -3165,7 +3159,7 @@
     <row r="49" ht="16" spans="2:4">
       <c r="B49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -3183,7 +3177,7 @@
     <row r="51" ht="16" spans="2:4">
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -3192,7 +3186,7 @@
     <row r="52" ht="16" spans="2:4">
       <c r="B52" s="2"/>
       <c r="C52" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -3219,7 +3213,7 @@
     <row r="55" ht="16" spans="2:4">
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -3254,7 +3248,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="62.0416666666667" customWidth="1"/>
+    <col min="3" max="3" width="62.0384615384615" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3282,43 +3276,43 @@
         <v>2025</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:5">
       <c r="B3" s="5"/>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:5">
       <c r="B4" s="5"/>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="5"/>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3327,7 +3321,7 @@
     <row r="6" spans="1:5">
       <c r="B6" s="5"/>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3336,7 +3330,7 @@
     <row r="7" spans="1:5">
       <c r="B7" s="5"/>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3345,7 +3339,7 @@
     <row r="8" spans="1:5">
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3354,7 +3348,7 @@
     <row r="9" spans="1:5">
       <c r="B9" s="5"/>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3363,7 +3357,7 @@
     <row r="10" spans="1:5">
       <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -3372,7 +3366,7 @@
     <row r="11" spans="1:5">
       <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3381,7 +3375,7 @@
     <row r="12" spans="1:5">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3390,7 +3384,7 @@
     <row r="13" spans="1:5">
       <c r="B13" s="5"/>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -3399,7 +3393,7 @@
     <row r="14" spans="1:5">
       <c r="B14" s="5"/>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -3408,7 +3402,7 @@
     <row r="15" spans="1:5">
       <c r="B15" s="5"/>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -3417,7 +3411,7 @@
     <row r="16" spans="1:5">
       <c r="B16" s="5"/>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -3426,7 +3420,7 @@
     <row r="17" spans="2:4">
       <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -3435,7 +3429,7 @@
     <row r="18" spans="2:4">
       <c r="B18" s="5"/>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -3444,7 +3438,7 @@
     <row r="19" spans="2:4">
       <c r="B19" s="5"/>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3453,7 +3447,7 @@
     <row r="20" spans="2:4">
       <c r="B20" s="5"/>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3462,7 +3456,7 @@
     <row r="21" spans="2:4">
       <c r="B21" s="5"/>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -3471,7 +3465,7 @@
     <row r="22" spans="2:4">
       <c r="B22" s="5"/>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3480,7 +3474,7 @@
     <row r="23" spans="2:4">
       <c r="B23" s="5"/>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3489,7 +3483,7 @@
     <row r="24" spans="2:4">
       <c r="B24" s="5"/>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3498,7 +3492,7 @@
     <row r="25" spans="2:4">
       <c r="B25" s="5"/>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3507,7 +3501,7 @@
     <row r="26" spans="2:4">
       <c r="B26" s="5"/>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3516,7 +3510,7 @@
     <row r="27" spans="2:4">
       <c r="B27" s="5"/>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3525,7 +3519,7 @@
     <row r="28" spans="2:4">
       <c r="B28" s="5"/>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3534,7 +3528,7 @@
     <row r="29" spans="2:4">
       <c r="B29" s="5"/>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3543,7 +3537,7 @@
     <row r="30" spans="2:4">
       <c r="B30" s="5"/>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3552,7 +3546,7 @@
     <row r="31" spans="2:4">
       <c r="B31" s="5"/>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3561,7 +3555,7 @@
     <row r="32" spans="2:4">
       <c r="B32" s="5"/>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -3570,7 +3564,7 @@
     <row r="33" spans="2:4">
       <c r="B33" s="5"/>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -3579,7 +3573,7 @@
     <row r="34" spans="2:4">
       <c r="B34" s="5"/>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3588,7 +3582,7 @@
     <row r="35" spans="2:4">
       <c r="B35" s="5"/>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3599,7 +3593,7 @@
         <v>2024</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3608,7 +3602,7 @@
     <row r="37" spans="2:4">
       <c r="B37" s="5"/>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3617,7 +3611,7 @@
     <row r="38" spans="2:4">
       <c r="B38" s="5"/>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -3626,7 +3620,7 @@
     <row r="39" spans="2:4">
       <c r="B39" s="5"/>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3635,7 +3629,7 @@
     <row r="40" spans="2:4">
       <c r="B40" s="5"/>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -3644,7 +3638,7 @@
     <row r="41" spans="2:4">
       <c r="B41" s="5"/>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3653,7 +3647,7 @@
     <row r="42" spans="2:4">
       <c r="B42" s="5"/>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -3662,7 +3656,7 @@
     <row r="43" spans="2:4">
       <c r="B43" s="5"/>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3671,7 +3665,7 @@
     <row r="44" spans="2:4">
       <c r="B44" s="5"/>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3680,7 +3674,7 @@
     <row r="45" spans="2:4">
       <c r="B45" s="5"/>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3689,7 +3683,7 @@
     <row r="46" spans="2:4">
       <c r="B46" s="5"/>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D46">
         <v>7</v>
@@ -3698,7 +3692,7 @@
     <row r="47" spans="2:4">
       <c r="B47" s="5"/>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D47">
         <v>7</v>
@@ -3707,7 +3701,7 @@
     <row r="48" spans="2:4">
       <c r="B48" s="5"/>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -3716,7 +3710,7 @@
     <row r="49" spans="2:4">
       <c r="B49" s="5"/>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D49">
         <v>9</v>
@@ -3725,7 +3719,7 @@
     <row r="50" spans="2:4">
       <c r="B50" s="5"/>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3734,7 +3728,7 @@
     <row r="51" spans="2:4">
       <c r="B51" s="5"/>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -3743,7 +3737,7 @@
     <row r="52" spans="2:4">
       <c r="B52" s="5"/>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3752,7 +3746,7 @@
     <row r="53" spans="2:4">
       <c r="B53" s="5"/>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3761,7 +3755,7 @@
     <row r="54" spans="2:4">
       <c r="B54" s="5"/>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3770,7 +3764,7 @@
     <row r="55" spans="2:4">
       <c r="B55" s="5"/>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -3779,7 +3773,7 @@
     <row r="56" spans="2:4">
       <c r="B56" s="5"/>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3788,7 +3782,7 @@
     <row r="57" spans="2:4">
       <c r="B57" s="5"/>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3797,7 +3791,7 @@
     <row r="58" spans="2:4">
       <c r="B58" s="5"/>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3806,7 +3800,7 @@
     <row r="59" spans="2:4">
       <c r="B59" s="5"/>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3815,7 +3809,7 @@
     <row r="60" spans="2:4">
       <c r="B60" s="5"/>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3824,7 +3818,7 @@
     <row r="61" spans="2:4">
       <c r="B61" s="5"/>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -3833,7 +3827,7 @@
     <row r="62" spans="2:4">
       <c r="B62" s="5"/>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -3842,7 +3836,7 @@
     <row r="63" spans="2:4">
       <c r="B63" s="5"/>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -3851,7 +3845,7 @@
     <row r="64" spans="2:4">
       <c r="B64" s="5"/>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -3860,7 +3854,7 @@
     <row r="65" spans="2:4">
       <c r="B65" s="5"/>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -3869,7 +3863,7 @@
     <row r="66" spans="2:4">
       <c r="B66" s="5"/>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -3878,7 +3872,7 @@
     <row r="67" spans="2:4">
       <c r="B67" s="5"/>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -3912,7 +3906,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="31.15" customWidth="1"/>
+    <col min="3" max="3" width="31.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3946,7 +3940,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H2">
         <v>80</v>
@@ -3973,7 +3967,7 @@
     <row r="5" spans="1:8">
       <c r="B5" s="5"/>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -3982,7 +3976,7 @@
     <row r="6" spans="1:8">
       <c r="B6" s="5"/>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -3991,7 +3985,7 @@
     <row r="7" spans="1:8">
       <c r="B7" s="5"/>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4000,7 +3994,7 @@
     <row r="8" spans="1:8">
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -4009,7 +4003,7 @@
     <row r="9" spans="1:8">
       <c r="B9" s="5"/>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -4027,7 +4021,7 @@
     <row r="11" spans="1:8">
       <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4036,7 +4030,7 @@
     <row r="12" spans="1:8">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -4063,7 +4057,7 @@
     <row r="15" spans="1:8">
       <c r="B15" s="5"/>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4072,7 +4066,7 @@
     <row r="16" spans="1:8">
       <c r="B16" s="5"/>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4081,7 +4075,7 @@
     <row r="17" spans="2:5">
       <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E17">
         <v>1</v>

--- a/backend/common/primary_data/灣仔區升学数据.xlsx
+++ b/backend/common/primary_data/灣仔區升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15740" firstSheet="6" activeTab="6"/>
+    <workbookView windowHeight="15740" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="高主教書院小學部" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="123">
   <si>
     <t>是否可统计升中数据</t>
   </si>
@@ -319,163 +319,124 @@
     <t>順利天主教中學</t>
   </si>
   <si>
-    <t>Queen's College</t>
-  </si>
-  <si>
     <t>https://sekps.edu.hk/sspa-results-20232025</t>
   </si>
   <si>
-    <t>St Paul's Secondary School</t>
+    <t/>
   </si>
   <si>
     <t>https://sekps.edu.hk/sspa-results-20222024</t>
   </si>
   <si>
-    <t>The True Light School of Hong Kong</t>
-  </si>
-  <si>
     <t>https://sekps.edu.hk/sspa-results-20212023</t>
   </si>
   <si>
-    <t>Marymount Secondary School</t>
-  </si>
-  <si>
-    <t>SKH Tang Shiu Kin Secondary School</t>
-  </si>
-  <si>
-    <t>Raimondi College</t>
-  </si>
-  <si>
-    <t>Wah Yan College, Hong Kong</t>
-  </si>
-  <si>
-    <t>Precious Blood Secondary School</t>
-  </si>
-  <si>
-    <t>Buddhist Wong Fung Ling College</t>
-  </si>
-  <si>
-    <t>HK Tang King Po College</t>
-  </si>
-  <si>
-    <t>Hotung Secondary School</t>
-  </si>
-  <si>
-    <t>St Joan of Arc Secondary School</t>
-  </si>
-  <si>
-    <t>Kiangsu-Chekiang College</t>
-  </si>
-  <si>
-    <t>Islamic Kasim Tuet Memorial College</t>
-  </si>
-  <si>
-    <t>CCC Kwei Wah Shan College</t>
-  </si>
-  <si>
-    <t>TWGHS Lee Ching Dea Memorial College</t>
-  </si>
-  <si>
-    <t>Concordia Lutheran School (NP)</t>
-  </si>
-  <si>
-    <t>Hon Wah College</t>
-  </si>
-  <si>
-    <t>Cheung Sha Wan Catholic Secondary School</t>
-  </si>
-  <si>
-    <t>The Methodist Church HK Wesley College</t>
-  </si>
-  <si>
-    <t>NLSI Lui Kwok Pat Fong College</t>
-  </si>
-  <si>
-    <t>Our Lady's College</t>
-  </si>
-  <si>
-    <t>Chong Gene Hang College</t>
-  </si>
-  <si>
-    <t>Lock Tao Secondary School</t>
-  </si>
-  <si>
-    <t>Chinese YMCA Secondary School</t>
-  </si>
-  <si>
-    <t>Yu Chun Keung Memorial College No.2</t>
-  </si>
-  <si>
-    <t>PLK Tong Nai Kan Junior Secondary School</t>
-  </si>
-  <si>
-    <t>Heung To Secondary School (Tseung Kwan O)</t>
-  </si>
-  <si>
-    <t>Aberdeen Technical School</t>
-  </si>
-  <si>
-    <t>St Paul's School (Nam Tin)</t>
-  </si>
-  <si>
-    <t>Creative Secondary School</t>
-  </si>
-  <si>
-    <t>Delia Memorial School (Glee Path)</t>
-  </si>
-  <si>
-    <t>Delia Memorial School (Broadway)</t>
-  </si>
-  <si>
-    <t>Man Kwan QualiEd College</t>
-  </si>
-  <si>
-    <t>True Light Middle School of Hong Kong</t>
-  </si>
-  <si>
-    <t>St Stephen's Girls' College</t>
-  </si>
-  <si>
-    <t>St Stephen's Church College</t>
-  </si>
-  <si>
-    <t>Caritas Wu Cheng-Chung Secondary School</t>
-  </si>
-  <si>
-    <t>Pui Ying Secondary School</t>
-  </si>
-  <si>
-    <t>Academy of Innovation (Confucius Hall)</t>
-  </si>
-  <si>
-    <t>Delia Memorial School (Hip Wo)</t>
-  </si>
-  <si>
-    <t>Delia Memorial School (Hip Wo No.2 College)</t>
-  </si>
-  <si>
-    <t>HKMA David Li Kwok Po College</t>
-  </si>
-  <si>
-    <t>Wah Yan College,KLN</t>
-  </si>
-  <si>
-    <t>St Mark's School</t>
-  </si>
-  <si>
-    <t>Yan Chai Hospital Wong Wha San Secondary School</t>
-  </si>
-  <si>
-    <t>The Church of Christ in China Heep Who College</t>
-  </si>
-  <si>
-    <t>Madam Lau Kam Lung Secondary School of Miu Fat Buddhist Monastery</t>
-  </si>
-  <si>
-    <t>King Ling College</t>
-  </si>
-  <si>
-    <t>Pui Tak Canossian College</t>
+    <t>高主教書院</t>
+  </si>
+  <si>
+    <t>佛教黃鳳翎中學</t>
+  </si>
+  <si>
+    <t>聖貞德中學</t>
+  </si>
+  <si>
+    <t>伊斯蘭脫維善紀念中學</t>
+  </si>
+  <si>
+    <t>中華基督教會桂華山中學</t>
+  </si>
+  <si>
+    <t>長沙灣天主教英文中學</t>
+  </si>
+  <si>
+    <t>衞理中學</t>
+  </si>
+  <si>
+    <t>新生命教育協會呂郭碧鳳中學</t>
+  </si>
+  <si>
+    <t>聖母書院</t>
+  </si>
+  <si>
+    <t>張振興伉儷書院</t>
+  </si>
+  <si>
+    <t>樂道中學</t>
+  </si>
+  <si>
+    <t>中華基督教青年會中學</t>
+  </si>
+  <si>
+    <t>餘振強紀念第二中學</t>
+  </si>
+  <si>
+    <t>保良局唐乃勤初中書院</t>
+  </si>
+  <si>
+    <t>將軍澳香島中學</t>
+  </si>
+  <si>
+    <t>香港仔工業學校</t>
+  </si>
+  <si>
+    <t>藍田聖保祿中學</t>
+  </si>
+  <si>
+    <t>啓思中學</t>
+  </si>
+  <si>
+    <t>地利亞修女紀念學校（吉利徑）</t>
+  </si>
+  <si>
+    <t>地利亞修女紀念學校（百老匯）</t>
+  </si>
+  <si>
+    <t>萬鈞匯知中學</t>
+  </si>
+  <si>
+    <t>聖士提反女子中學</t>
+  </si>
+  <si>
+    <t>聖士提反堂中學</t>
+  </si>
+  <si>
+    <t>明愛胡振中書院</t>
+  </si>
+  <si>
+    <t>培英中學</t>
+  </si>
+  <si>
+    <t>孔聖堂禮仁書院</t>
+  </si>
+  <si>
+    <t>地利亞修女紀念學校（協和）</t>
+  </si>
+  <si>
+    <t>地利亞修女紀念學校（協和二中）</t>
+  </si>
+  <si>
+    <t>香港管理專業協會李國寶中學</t>
+  </si>
+  <si>
+    <t>華仁書院（九龍）</t>
+  </si>
+  <si>
+    <t>聖馬可中學</t>
+  </si>
+  <si>
+    <t>仁濟醫院王華湘中學</t>
+  </si>
+  <si>
+    <t>基督教聖約教會堅樂中學</t>
+  </si>
+  <si>
+    <t>妙法寺劉金龍中學</t>
+  </si>
+  <si>
+    <t>景嶺書院</t>
+  </si>
+  <si>
+    <t>嘉諾撒培德書院</t>
   </si>
   <si>
     <t>合共</t>
@@ -493,9 +454,6 @@
     <t>喇沙書院</t>
   </si>
   <si>
-    <t>高主教書院</t>
-  </si>
-  <si>
     <t>聖保祿學校</t>
   </si>
   <si>
@@ -529,13 +487,7 @@
     <t>嘉諾撒聖瑪利書院</t>
   </si>
   <si>
-    <t>聖士提反女子中學</t>
-  </si>
-  <si>
     <t>香港青年協會李兆基書院</t>
-  </si>
-  <si>
-    <t>地利亞修女紀念學校（吉利徑）</t>
   </si>
   <si>
     <t>一条龙</t>
@@ -560,7 +512,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -572,6 +524,20 @@
       <sz val="10"/>
       <name val="inherit"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -933,7 +899,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -966,6 +932,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,28 +1053,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,122 +1074,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1235,6 +1216,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1905,7 +1893,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:5">
@@ -1917,7 +1905,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:5">
@@ -1929,19 +1917,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" ht="16" spans="1:5">
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D5" s="4">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" ht="16" spans="1:5">
@@ -1953,67 +1941,67 @@
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" ht="16" spans="1:5">
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="16" spans="1:5">
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" ht="16" spans="1:5">
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" ht="16" spans="1:5">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" ht="16" spans="1:5">
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" ht="16" spans="1:5">
@@ -2025,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" ht="16" spans="1:5">
@@ -2037,7 +2025,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" ht="16" spans="1:5">
@@ -2049,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" ht="16" spans="1:5">
@@ -2061,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" ht="16" spans="1:5">
@@ -2073,7 +2061,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" ht="16" spans="2:5">
@@ -2085,19 +2073,19 @@
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" ht="16" spans="2:5">
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" ht="16" spans="2:5">
@@ -2109,31 +2097,31 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" ht="16" spans="2:5">
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" ht="16" spans="2:5">
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2172,7 @@
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -2233,7 +2221,7 @@
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:5">
@@ -2287,7 +2275,7 @@
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -2337,7 +2325,7 @@
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -2688,7 +2676,7 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -2985,10 +2973,10 @@
     </row>
     <row r="30" ht="16" spans="2:4">
       <c r="B30" s="1"/>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="10">
         <v>1</v>
       </c>
     </row>
@@ -3242,8 +3230,8 @@
   </sheetPr>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="4"/>
@@ -3251,631 +3239,1015 @@
     <col min="3" max="3" width="62.0384615384615" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" ht="16.8" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="8">
         <v>2025</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D2">
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" ht="16.8" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" ht="16.8" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" ht="16.8" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" ht="16.8" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" ht="16.8" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" ht="16.8" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" ht="16.8" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" ht="16.8" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" ht="16.8" spans="1:5">
+      <c r="A13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" ht="16.8" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" ht="16.8" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" ht="16.8" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" ht="16.8" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" ht="16.8" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="7">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" ht="19" customHeight="1" spans="1:5">
-      <c r="B3" s="5"/>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3">
+      <c r="E18" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" ht="16.8" spans="1:5">
+      <c r="A19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" ht="16.8" spans="1:5">
+      <c r="A20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" ht="16.8" spans="1:5">
+      <c r="A21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" ht="16.8" spans="1:5">
+      <c r="A22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" ht="16.8" spans="1:5">
+      <c r="A23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" ht="16.8" spans="1:5">
+      <c r="A24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" ht="16.8" spans="1:5">
+      <c r="A25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" spans="1:5">
+      <c r="A26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" ht="16.8" spans="1:5">
+      <c r="A27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" ht="16.8" spans="1:5">
+      <c r="A28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" ht="16.8" spans="1:5">
+      <c r="A29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" ht="16.8" spans="1:5">
+      <c r="A30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" ht="16.8" spans="1:5">
+      <c r="A31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" ht="16.8" spans="1:5">
+      <c r="A32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="7">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" ht="19" customHeight="1" spans="1:5">
-      <c r="B4" s="5"/>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4">
+      <c r="E32" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" ht="16.8" spans="1:5">
+      <c r="A33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="7">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" ht="16.8" spans="1:5">
+      <c r="A34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" ht="16.8" spans="1:5">
+      <c r="A35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" ht="16.8" spans="1:5">
+      <c r="A36" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" ht="16.8" spans="1:5">
+      <c r="A37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" ht="16.8" spans="1:5">
+      <c r="A38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" ht="16.8" spans="1:5">
+      <c r="A39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" ht="16.8" spans="1:5">
+      <c r="A40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="7">
+        <v>4</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" ht="16.8" spans="1:5">
+      <c r="A41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" ht="16.8" spans="1:5">
+      <c r="A42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="5"/>
-      <c r="C5" t="s">
+      <c r="D42" s="7">
+        <v>3</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" ht="16.8" spans="1:5">
+      <c r="A43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" ht="16.8" spans="1:5">
+      <c r="A44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" ht="16.8" spans="1:5">
+      <c r="A45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" ht="16.8" spans="1:5">
+      <c r="A46" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="5"/>
-      <c r="C6" t="s">
+      <c r="D46" s="7">
+        <v>7</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" ht="16.8" spans="1:5">
+      <c r="A47" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="7">
+        <v>7</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" ht="16.8" spans="1:5">
+      <c r="A48" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="5"/>
-      <c r="C7" t="s">
+      <c r="D48" s="7">
+        <v>5</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" ht="16.8" spans="1:5">
+      <c r="A49" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="5"/>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="5"/>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="5"/>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10">
+      <c r="D49" s="7">
+        <v>9</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" ht="16.8" spans="1:5">
+      <c r="A50" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" ht="16.8" spans="1:5">
+      <c r="A51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="7">
+        <v>3</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" ht="16.8" spans="1:5">
+      <c r="A52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" ht="16.8" spans="1:5">
+      <c r="A53" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" ht="16.8" spans="1:5">
+      <c r="A54" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" ht="16.8" spans="1:5">
+      <c r="A55" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" ht="16.8" spans="1:5">
+      <c r="A56" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" ht="16.8" spans="1:5">
+      <c r="A57" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="7">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" ht="16.8" spans="1:5">
+      <c r="A58" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="7">
+        <v>1</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" ht="16.8" spans="1:5">
+      <c r="A59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="7">
+        <v>1</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" ht="16.8" spans="1:5">
+      <c r="A60" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" ht="16.8" spans="1:5">
+      <c r="A61" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="7">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" ht="16.8" spans="1:5">
+      <c r="A62" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="7">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" ht="16.8" spans="1:5">
+      <c r="A63" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="7">
+        <v>1</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" ht="16.8" spans="1:5">
+      <c r="A64" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="7">
+        <v>1</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" ht="16.8" spans="1:5">
+      <c r="A65" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="7">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" ht="16.8" spans="1:5">
+      <c r="A66" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="5"/>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="5"/>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="5"/>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="5"/>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="5"/>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="5"/>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="5"/>
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="5"/>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="5"/>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="5"/>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="5"/>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="5"/>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="5"/>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="5"/>
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="5"/>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="5"/>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="5"/>
-      <c r="C27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="5"/>
-      <c r="C28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="5"/>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="5"/>
-      <c r="C30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="5"/>
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="5"/>
-      <c r="C32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="5"/>
-      <c r="C33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="5"/>
-      <c r="C34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="5"/>
-      <c r="C35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="5">
-        <v>2024</v>
-      </c>
-      <c r="C36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="5"/>
-      <c r="C37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="5"/>
-      <c r="C38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="5"/>
-      <c r="C39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="5"/>
-      <c r="C40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="5"/>
-      <c r="C41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="5"/>
-      <c r="C42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="5"/>
-      <c r="C43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="5"/>
-      <c r="C44" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="5"/>
-      <c r="C45" t="s">
+      <c r="E66" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" ht="16.8" spans="1:5">
+      <c r="A67" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="5"/>
-      <c r="C46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="5"/>
-      <c r="C47" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="5"/>
-      <c r="C48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="5"/>
-      <c r="C49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="5"/>
-      <c r="C50" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="5"/>
-      <c r="C51" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="5"/>
-      <c r="C52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="5"/>
-      <c r="C53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="5"/>
-      <c r="C54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="5"/>
-      <c r="C55" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="5"/>
-      <c r="C56" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="5"/>
-      <c r="C57" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="5"/>
-      <c r="C58" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="5"/>
-      <c r="C59" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="5"/>
-      <c r="C60" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="5"/>
-      <c r="C61" t="s">
-        <v>102</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="5"/>
-      <c r="C62" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="5"/>
-      <c r="C63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="5"/>
-      <c r="C64" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="5"/>
-      <c r="C65" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="5"/>
-      <c r="C66" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="5"/>
-      <c r="C67" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
+      <c r="D67" s="7">
+        <v>1</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3883,11 +4255,6 @@
     <mergeCell ref="B2:B35"/>
     <mergeCell ref="B36:B67"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://sekps.edu.hk/sspa-results-20232025"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://sekps.edu.hk/sspa-results-20222024"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://sekps.edu.hk/sspa-results-20212023"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3940,7 +4307,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H2">
         <v>80</v>
@@ -3976,7 +4343,7 @@
     <row r="6" spans="1:8">
       <c r="B6" s="5"/>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -3985,7 +4352,7 @@
     <row r="7" spans="1:8">
       <c r="B7" s="5"/>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3994,7 +4361,7 @@
     <row r="8" spans="1:8">
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -4021,7 +4388,7 @@
     <row r="11" spans="1:8">
       <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4030,7 +4397,7 @@
     <row r="12" spans="1:8">
       <c r="B12" s="5"/>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -4057,7 +4424,7 @@
     <row r="15" spans="1:8">
       <c r="B15" s="5"/>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4066,7 +4433,7 @@
     <row r="16" spans="1:8">
       <c r="B16" s="5"/>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4075,7 +4442,7 @@
     <row r="17" spans="2:5">
       <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E17">
         <v>1</v>

--- a/backend/common/primary_data/灣仔區升学数据.xlsx
+++ b/backend/common/primary_data/灣仔區升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15740" firstSheet="6" activeTab="7"/>
+    <workbookView windowHeight="16640" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="高主教書院小學部" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="嘉諾撒聖方濟各學校" sheetId="13" r:id="rId13"/>
     <sheet name="聖保祿天主教小學" sheetId="14" r:id="rId14"/>
     <sheet name="李陞大坑學校" sheetId="15" r:id="rId15"/>
+    <sheet name="東華三院李賜豪小學" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="131">
   <si>
     <t>是否可统计升中数据</t>
   </si>
@@ -490,7 +491,10 @@
     <t>香港青年協會李兆基書院</t>
   </si>
   <si>
-    <t>一条龙</t>
+    <t>福建中學 (小西灣)</t>
+  </si>
+  <si>
+    <t>寶血女子佛教黃鳳翎中學</t>
   </si>
   <si>
     <t>www.mps.edu.hk</t>
@@ -500,6 +504,27 @@
   </si>
   <si>
     <t>學校有直屬中學：聖保祿中學</t>
+  </si>
+  <si>
+    <t>可立中學 (嗇色園主辦)</t>
+  </si>
+  <si>
+    <t>將軍澳官立中學</t>
+  </si>
+  <si>
+    <t>保良局甲子何玉清中學</t>
+  </si>
+  <si>
+    <t>何文田官立中學</t>
+  </si>
+  <si>
+    <t>五邑司徒浩中學</t>
+  </si>
+  <si>
+    <t>炮台山循道衞理中學</t>
+  </si>
+  <si>
+    <t>香港航海學校</t>
   </si>
 </sst>
 </file>
@@ -521,6 +546,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF262626"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="inherit"/>
       <charset val="134"/>
@@ -528,13 +560,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -694,14 +719,14 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF175CEB"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF175CEB"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -899,10 +924,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFEAEAEA"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1074,7 +1108,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1086,34 +1120,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1198,36 +1232,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1816,13 +1856,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1866,16 +1906,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1883,244 +1923,244 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>2025</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>33</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:5">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:5">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" ht="16" spans="1:5">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" ht="16" spans="1:5">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" ht="16" spans="1:5">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" ht="16" spans="1:5">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" ht="16" spans="1:5">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" ht="16" spans="1:5">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" ht="16" spans="1:5">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="12" ht="16" spans="1:5">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="13" ht="16" spans="1:5">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>4</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" ht="16" spans="1:5">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" ht="16" spans="1:5">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>2</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="16" ht="16" spans="1:5">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>15</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" ht="16" spans="2:5">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="18" ht="16" spans="2:5">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="19" ht="16" spans="2:5">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" ht="16" spans="2:5">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="21" ht="16" spans="2:5">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2139,18 +2179,18 @@
   <sheetPr codeName="佛教黃焯菴小學">
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="31.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2164,19 +2204,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="19" customHeight="1" spans="1:5">
+    <row r="2" ht="19" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>2025</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="1:4">
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="1:4">
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:4">
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:4">
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:4">
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="17.6" spans="1:4">
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" ht="17.6" spans="1:4">
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="17.6" spans="1:4">
+      <c r="C10" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" ht="19" customHeight="1"/>
-    <row r="4" ht="19" customHeight="1"/>
+    <row r="11" ht="17.6" spans="1:4">
+      <c r="C11" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2221,7 +2304,7 @@
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:5">
@@ -2275,7 +2358,7 @@
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -2325,7 +2408,7 @@
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1"/>
@@ -2344,7 +2427,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I36" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -2377,6 +2460,240 @@
     </row>
     <row r="3" ht="19" customHeight="1"/>
     <row r="4" ht="19" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="25.6346153846154" customWidth="1"/>
+    <col min="3" max="3" width="31.1538461538462" customWidth="1"/>
+    <col min="5" max="5" width="31.7788461538462" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:4">
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:4">
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:4">
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="17.6" spans="1:4">
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="17.6" spans="1:4">
+      <c r="C9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="17.6" spans="1:4">
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="17.6" spans="1:4">
+      <c r="C11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="17.6" spans="1:4">
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="17.6" spans="1:4">
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="17.6" spans="1:4">
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" ht="17.6" spans="1:4">
+      <c r="C15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="17.6" spans="1:4">
+      <c r="C16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="17.6" spans="3:4">
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="17.6" spans="3:4">
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" ht="17.6" spans="3:4">
+      <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" ht="17.6" spans="3:4">
+      <c r="C20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="17.6" spans="3:4">
+      <c r="C21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="17.6" spans="3:4">
+      <c r="C22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="17.6" spans="3:4">
+      <c r="C23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" ht="17.6" spans="3:4">
+      <c r="C24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="17.6" spans="3:4">
+      <c r="C25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2403,13 +2720,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -2459,16 +2776,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2519,16 +2836,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2579,16 +2896,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2634,16 +2951,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2689,16 +3006,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2706,13 +3023,13 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>2023</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>2</v>
       </c>
       <c r="E2" t="s">
@@ -2720,11 +3037,11 @@
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:5">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -2732,11 +3049,11 @@
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:5">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" t="s">
@@ -2744,11 +3061,11 @@
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:5">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>2</v>
       </c>
       <c r="E5" t="s">
@@ -2756,454 +3073,454 @@
       </c>
     </row>
     <row r="6" ht="16" spans="1:5">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="16" spans="1:5">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="16" spans="1:5">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="9" ht="16" spans="1:5">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="10" ht="16" spans="1:5">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="16" spans="1:5">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="16" spans="1:5">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="13" ht="16" spans="1:5">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="14" ht="16" spans="1:5">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="15" ht="16" spans="1:5">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="16" ht="16" spans="1:5">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="17" ht="16" spans="2:4">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="18" ht="16" spans="2:4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="16" spans="2:4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="20" ht="16" spans="2:4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="21" ht="16" spans="2:4">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="22" ht="16" spans="2:4">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="23" ht="16" spans="2:4">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="16" spans="2:4">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="25" ht="16" spans="2:4">
-      <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="26" ht="16" spans="2:4">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" ht="16" spans="2:4">
-      <c r="B27" s="2"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="28" ht="16" spans="2:4">
-      <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="29" ht="16" spans="2:4">
-      <c r="B29" s="2"/>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="30" ht="16" spans="2:4">
-      <c r="B30" s="1"/>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="31" ht="16" spans="2:4">
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>2022</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="32" ht="16" spans="2:4">
-      <c r="B32" s="2"/>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="33" ht="16" spans="2:4">
-      <c r="B33" s="2"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="34" ht="16" spans="2:4">
-      <c r="B34" s="2"/>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="35" ht="16" spans="2:4">
-      <c r="B35" s="2"/>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="36" ht="16" spans="2:4">
-      <c r="B36" s="2"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="37" ht="16" spans="2:4">
-      <c r="B37" s="2"/>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="38" ht="16" spans="2:4">
-      <c r="B38" s="2"/>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="39" ht="16" spans="2:4">
-      <c r="B39" s="2"/>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="40" ht="16" spans="2:4">
-      <c r="B40" s="2"/>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="41" ht="16" spans="2:4">
-      <c r="B41" s="2"/>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="42" ht="16" spans="2:4">
-      <c r="B42" s="2"/>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="43" ht="16" spans="2:4">
-      <c r="B43" s="2"/>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="44" ht="16" spans="2:4">
-      <c r="B44" s="2"/>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="45" ht="16" spans="2:4">
-      <c r="B45" s="2"/>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="46" ht="16" spans="2:4">
-      <c r="B46" s="2"/>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="47" ht="16" spans="2:4">
-      <c r="B47" s="2"/>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="48" ht="16" spans="2:4">
-      <c r="B48" s="2"/>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="49" ht="16" spans="2:4">
-      <c r="B49" s="2"/>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="50" ht="16" spans="2:4">
-      <c r="B50" s="2"/>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="51" ht="16" spans="2:4">
-      <c r="B51" s="2"/>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="4"/>
+      <c r="C51" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="52" ht="16" spans="2:4">
-      <c r="B52" s="2"/>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="53" ht="16" spans="2:4">
-      <c r="B53" s="2"/>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="4"/>
+      <c r="C53" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="54" ht="16" spans="2:4">
-      <c r="B54" s="2"/>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="4"/>
+      <c r="C54" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="55" ht="16" spans="2:4">
-      <c r="B55" s="2"/>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="4"/>
+      <c r="C55" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3230,7 +3547,7 @@
   </sheetPr>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -3240,1013 +3557,1013 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="10">
         <v>2025</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="9">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:5">
-      <c r="A4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" ht="16.8" spans="1:5">
-      <c r="A5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" ht="16.8" spans="1:5">
-      <c r="A6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="16.8" spans="1:5">
-      <c r="A7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" ht="16.8" spans="1:5">
-      <c r="A8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" ht="16.8" spans="1:5">
-      <c r="A9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" ht="16.8" spans="1:5">
-      <c r="A10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>2</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" ht="16.8" spans="1:5">
-      <c r="A11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" ht="16.8" spans="1:5">
-      <c r="A12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" ht="16.8" spans="1:5">
-      <c r="A13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>9</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" ht="16.8" spans="1:5">
-      <c r="A14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>5</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" ht="16.8" spans="1:5">
-      <c r="A15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <v>4</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" ht="16.8" spans="1:5">
-      <c r="A16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>2</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" ht="16.8" spans="1:5">
-      <c r="A17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="9">
         <v>2</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" ht="16.8" spans="1:5">
-      <c r="A18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="9">
         <v>6</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" ht="16.8" spans="1:5">
-      <c r="A19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" ht="16.8" spans="1:5">
-      <c r="A20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" ht="16.8" spans="1:5">
-      <c r="A21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="9">
         <v>2</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" ht="16.8" spans="1:5">
-      <c r="A22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" ht="16.8" spans="1:5">
-      <c r="A23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" ht="16.8" spans="1:5">
-      <c r="A24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" ht="16.8" spans="1:5">
-      <c r="A25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" ht="16.8" spans="1:5">
-      <c r="A26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" ht="16.8" spans="1:5">
-      <c r="A27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" ht="16.8" spans="1:5">
-      <c r="A28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7" t="s">
+      <c r="A28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" ht="16.8" spans="1:5">
-      <c r="A29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="30" ht="16.8" spans="1:5">
-      <c r="A30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7" t="s">
+      <c r="A30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" ht="16.8" spans="1:5">
-      <c r="A31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="7" t="s">
+      <c r="A31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" ht="16.8" spans="1:5">
-      <c r="A32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="7" t="s">
+      <c r="A32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="9">
         <v>3</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" ht="16.8" spans="1:5">
-      <c r="A33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="7" t="s">
+      <c r="A33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="9">
         <v>3</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" ht="16.8" spans="1:5">
-      <c r="A34" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="7" t="s">
+      <c r="A34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="35" ht="16.8" spans="1:5">
-      <c r="A35" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7" t="s">
+      <c r="A35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="36" ht="16.8" spans="1:5">
-      <c r="A36" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="8">
+      <c r="A36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="10">
         <v>2024</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="9">
         <v>2</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" ht="16.8" spans="1:5">
-      <c r="A37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="7" t="s">
+      <c r="A37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="9">
         <v>2</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" ht="16.8" spans="1:5">
-      <c r="A38" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="7" t="s">
+      <c r="A38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="9">
         <v>3</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" ht="16.8" spans="1:5">
-      <c r="A39" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="7" t="s">
+      <c r="A39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="9">
         <v>2</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="40" ht="16.8" spans="1:5">
-      <c r="A40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="7" t="s">
+      <c r="A40" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="9">
         <v>4</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" ht="16.8" spans="1:5">
-      <c r="A41" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="7" t="s">
+      <c r="A41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="7">
-        <v>1</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="9">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" ht="16.8" spans="1:5">
-      <c r="A42" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="7" t="s">
+      <c r="A42" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="9">
         <v>3</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="43" ht="16.8" spans="1:5">
-      <c r="A43" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="7">
-        <v>1</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="D43" s="9">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="44" ht="16.8" spans="1:5">
-      <c r="A44" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="7" t="s">
+      <c r="A44" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="7">
-        <v>1</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="D44" s="9">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="45" ht="16.8" spans="1:5">
-      <c r="A45" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="7" t="s">
+      <c r="A45" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="7">
-        <v>1</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="9">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="46" ht="16.8" spans="1:5">
-      <c r="A46" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="7" t="s">
+      <c r="A46" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="9">
         <v>7</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="47" ht="16.8" spans="1:5">
-      <c r="A47" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="7" t="s">
+      <c r="A47" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="9">
         <v>7</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="48" ht="16.8" spans="1:5">
-      <c r="A48" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="7" t="s">
+      <c r="A48" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="9">
         <v>5</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="49" ht="16.8" spans="1:5">
-      <c r="A49" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="7" t="s">
+      <c r="A49" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="9">
         <v>9</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="50" ht="16.8" spans="1:5">
-      <c r="A50" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="7" t="s">
+      <c r="A50" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="7">
-        <v>1</v>
-      </c>
-      <c r="E50" s="7" t="s">
+      <c r="D50" s="9">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="51" ht="16.8" spans="1:5">
-      <c r="A51" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="7" t="s">
+      <c r="A51" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="9">
         <v>3</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="52" ht="16.8" spans="1:5">
-      <c r="A52" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="7" t="s">
+      <c r="A52" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="7">
-        <v>1</v>
-      </c>
-      <c r="E52" s="7" t="s">
+      <c r="D52" s="9">
+        <v>1</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="53" ht="16.8" spans="1:5">
-      <c r="A53" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="7" t="s">
+      <c r="A53" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="7">
-        <v>1</v>
-      </c>
-      <c r="E53" s="7" t="s">
+      <c r="D53" s="9">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="54" ht="16.8" spans="1:5">
-      <c r="A54" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="7" t="s">
+      <c r="A54" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="7">
-        <v>1</v>
-      </c>
-      <c r="E54" s="7" t="s">
+      <c r="D54" s="9">
+        <v>1</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="55" ht="16.8" spans="1:5">
-      <c r="A55" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="7" t="s">
+      <c r="A55" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="7">
-        <v>1</v>
-      </c>
-      <c r="E55" s="7" t="s">
+      <c r="D55" s="9">
+        <v>1</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="56" ht="16.8" spans="1:5">
-      <c r="A56" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="7" t="s">
+      <c r="A56" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="7">
-        <v>1</v>
-      </c>
-      <c r="E56" s="7" t="s">
+      <c r="D56" s="9">
+        <v>1</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="57" ht="16.8" spans="1:5">
-      <c r="A57" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="7" t="s">
+      <c r="A57" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D57" s="7">
-        <v>1</v>
-      </c>
-      <c r="E57" s="7" t="s">
+      <c r="D57" s="9">
+        <v>1</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="58" ht="16.8" spans="1:5">
-      <c r="A58" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="7" t="s">
+      <c r="A58" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="7">
-        <v>1</v>
-      </c>
-      <c r="E58" s="7" t="s">
+      <c r="D58" s="9">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="59" ht="16.8" spans="1:5">
-      <c r="A59" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="7" t="s">
+      <c r="A59" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="7">
-        <v>1</v>
-      </c>
-      <c r="E59" s="7" t="s">
+      <c r="D59" s="9">
+        <v>1</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="60" ht="16.8" spans="1:5">
-      <c r="A60" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="7" t="s">
+      <c r="A60" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="7">
-        <v>1</v>
-      </c>
-      <c r="E60" s="7" t="s">
+      <c r="D60" s="9">
+        <v>1</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="61" ht="16.8" spans="1:5">
-      <c r="A61" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="7" t="s">
+      <c r="A61" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D61" s="7">
-        <v>1</v>
-      </c>
-      <c r="E61" s="7" t="s">
+      <c r="D61" s="9">
+        <v>1</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="62" ht="16.8" spans="1:5">
-      <c r="A62" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="7" t="s">
+      <c r="A62" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="7">
-        <v>1</v>
-      </c>
-      <c r="E62" s="7" t="s">
+      <c r="D62" s="9">
+        <v>1</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="63" ht="16.8" spans="1:5">
-      <c r="A63" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="7" t="s">
+      <c r="A63" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="7">
-        <v>1</v>
-      </c>
-      <c r="E63" s="7" t="s">
+      <c r="D63" s="9">
+        <v>1</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="64" ht="16.8" spans="1:5">
-      <c r="A64" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="7" t="s">
+      <c r="A64" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D64" s="7">
-        <v>1</v>
-      </c>
-      <c r="E64" s="7" t="s">
+      <c r="D64" s="9">
+        <v>1</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" ht="16.8" spans="1:5">
-      <c r="A65" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="7" t="s">
+      <c r="A65" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="7">
-        <v>1</v>
-      </c>
-      <c r="E65" s="7" t="s">
+      <c r="D65" s="9">
+        <v>1</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" ht="16.8" spans="1:5">
-      <c r="A66" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="7" t="s">
+      <c r="A66" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="9">
         <v>2</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="67" ht="16.8" spans="1:5">
-      <c r="A67" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="7" t="s">
+      <c r="A67" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="7">
-        <v>1</v>
-      </c>
-      <c r="E67" s="7" t="s">
+      <c r="D67" s="9">
+        <v>1</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4280,7 +4597,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -4297,7 +4614,7 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>2025</v>
       </c>
       <c r="C2" t="s">
@@ -4314,7 +4631,7 @@
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:8">
-      <c r="B3" s="5"/>
+      <c r="B3" s="7"/>
       <c r="C3" t="s">
         <v>50</v>
       </c>
@@ -4323,7 +4640,7 @@
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:8">
-      <c r="B4" s="5"/>
+      <c r="B4" s="7"/>
       <c r="C4" t="s">
         <v>33</v>
       </c>
@@ -4332,7 +4649,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="5"/>
+      <c r="B5" s="7"/>
       <c r="C5" t="s">
         <v>56</v>
       </c>
@@ -4341,7 +4658,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="5"/>
+      <c r="B6" s="7"/>
       <c r="C6" t="s">
         <v>103</v>
       </c>
@@ -4350,7 +4667,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="5"/>
+      <c r="B7" s="7"/>
       <c r="C7" t="s">
         <v>104</v>
       </c>
@@ -4359,7 +4676,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="5"/>
+      <c r="B8" s="7"/>
       <c r="C8" t="s">
         <v>105</v>
       </c>
@@ -4368,7 +4685,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="5"/>
+      <c r="B9" s="7"/>
       <c r="C9" t="s">
         <v>53</v>
       </c>
@@ -4377,7 +4694,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="5"/>
+      <c r="B10" s="7"/>
       <c r="C10" t="s">
         <v>31</v>
       </c>
@@ -4386,7 +4703,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="5"/>
+      <c r="B11" s="7"/>
       <c r="C11" t="s">
         <v>106</v>
       </c>
@@ -4395,7 +4712,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="5"/>
+      <c r="B12" s="7"/>
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -4404,7 +4721,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="5"/>
+      <c r="B13" s="7"/>
       <c r="C13" t="s">
         <v>39</v>
       </c>
@@ -4413,7 +4730,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="5"/>
+      <c r="B14" s="7"/>
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -4422,7 +4739,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="5"/>
+      <c r="B15" s="7"/>
       <c r="C15" t="s">
         <v>107</v>
       </c>
@@ -4431,7 +4748,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="5"/>
+      <c r="B16" s="7"/>
       <c r="C16" t="s">
         <v>108</v>
       </c>
@@ -4440,7 +4757,7 @@
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="5"/>
+      <c r="B17" s="7"/>
       <c r="C17" t="s">
         <v>109</v>
       </c>

--- a/backend/common/primary_data/灣仔區升学数据.xlsx
+++ b/backend/common/primary_data/灣仔區升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16640" firstSheet="9" activeTab="15"/>
+    <workbookView windowHeight="16080" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="高主教書院小學部" sheetId="1" r:id="rId1"/>
@@ -1894,7 +1894,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="4"/>
@@ -2181,8 +2181,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
@@ -2471,7 +2471,7 @@
   <sheetPr/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
